--- a/results/accel-glmm-results/habitat/np/glmm_ind_effects_hab_np.xlsx
+++ b/results/accel-glmm-results/habitat/np/glmm_ind_effects_hab_np.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">effect</t>
   </si>
@@ -66,6 +66,54 @@
   </si>
   <si>
     <t xml:space="preserve">sd__(Intercept)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">animal_id.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd__habitat_typeDeep/Low SAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd__habitat_typeExposed/Low SAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd__habitat_typeMod/Dense SAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd__habitat_typeShallow/Dense SAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd__habitat_typeShallow/Low SAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor__habitat_typeDeep/Low SAV.habitat_typeExposed/Low SAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor__habitat_typeDeep/Low SAV.habitat_typeMod/Dense SAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor__habitat_typeDeep/Low SAV.habitat_typeShallow/Dense SAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor__habitat_typeDeep/Low SAV.habitat_typeShallow/Low SAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor__habitat_typeExposed/Low SAV.habitat_typeMod/Dense SAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor__habitat_typeExposed/Low SAV.habitat_typeShallow/Dense SAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor__habitat_typeExposed/Low SAV.habitat_typeShallow/Low SAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor__habitat_typeMod/Dense SAV.habitat_typeShallow/Dense SAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor__habitat_typeMod/Dense SAV.habitat_typeShallow/Low SAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor__habitat_typeShallow/Dense SAV.habitat_typeShallow/Low SAV</t>
   </si>
 </sst>
 </file>
@@ -435,16 +483,16 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.89804596878905</v>
+        <v>-1.92127545234655</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0619121201318344</v>
+        <v>0.0397224822223558</v>
       </c>
       <c r="G2" t="n">
-        <v>-30.6570985575585</v>
+        <v>-48.3674570383534</v>
       </c>
       <c r="H2" t="n">
-        <v>2.12541357855931e-206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -459,16 +507,16 @@
         <v>11</v>
       </c>
       <c r="E3" t="n">
-        <v>0.424085224855076</v>
+        <v>0.438129514280025</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0273894439012962</v>
+        <v>0.076409877089608</v>
       </c>
       <c r="G3" t="n">
-        <v>15.4835281206643</v>
+        <v>5.73393821542493</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000448203335104851</v>
+        <v>0.00000000981250882300578</v>
       </c>
     </row>
     <row r="4">
@@ -483,16 +531,16 @@
         <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0254578872830803</v>
+        <v>0.0203086113771808</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00905485430657327</v>
+        <v>0.016508978404945</v>
       </c>
       <c r="G4" t="n">
-        <v>2.81151815602372</v>
+        <v>1.23015554803184</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00493083078142947</v>
+        <v>0.218638862221832</v>
       </c>
     </row>
     <row r="5">
@@ -507,16 +555,16 @@
         <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>0.132821142623175</v>
+        <v>-0.0321112415839058</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0125136246088797</v>
+        <v>0.065672982351393</v>
       </c>
       <c r="G5" t="n">
-        <v>10.6141223486058</v>
+        <v>-0.488956652099183</v>
       </c>
       <c r="H5" t="n">
-        <v>0.000000000000000000000000025619062093407</v>
+        <v>0.624872386245141</v>
       </c>
     </row>
     <row r="6">
@@ -531,16 +579,16 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.136605508729327</v>
+        <v>0.0615415927748369</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0066425434673933</v>
+        <v>0.0177482297446012</v>
       </c>
       <c r="G6" t="n">
-        <v>20.5652412212116</v>
+        <v>3.46747780823365</v>
       </c>
       <c r="H6" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000562196455797427</v>
+        <v>0.000525367119779436</v>
       </c>
     </row>
     <row r="7">
@@ -557,11 +605,311 @@
         <v>17</v>
       </c>
       <c r="E7" t="n">
-        <v>0.275477119021759</v>
+        <v>0.129632913149002</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.110026962608003</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.110026962608003</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.110026962608003</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.110026962608003</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.110026962608003</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.963051236103355</v>
+      </c>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9274676833602</v>
+      </c>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.893198898905955</v>
+      </c>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.860196303677535</v>
+      </c>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.963051236103355</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9274676833602</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.893198898905955</v>
+      </c>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.963051236103355</v>
+      </c>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9274676833602</v>
+      </c>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.963051236103355</v>
+      </c>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/accel-glmm-results/habitat/np/glmm_ind_effects_hab_np.xlsx
+++ b/results/accel-glmm-results/habitat/np/glmm_ind_effects_hab_np.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">effect</t>
   </si>
@@ -66,54 +66,6 @@
   </si>
   <si>
     <t xml:space="preserve">sd__(Intercept)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">animal_id.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd__habitat_typeDeep/Low SAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd__habitat_typeExposed/Low SAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd__habitat_typeMod/Dense SAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd__habitat_typeShallow/Dense SAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd__habitat_typeShallow/Low SAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cor__habitat_typeDeep/Low SAV.habitat_typeExposed/Low SAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cor__habitat_typeDeep/Low SAV.habitat_typeMod/Dense SAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cor__habitat_typeDeep/Low SAV.habitat_typeShallow/Dense SAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cor__habitat_typeDeep/Low SAV.habitat_typeShallow/Low SAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cor__habitat_typeExposed/Low SAV.habitat_typeMod/Dense SAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cor__habitat_typeExposed/Low SAV.habitat_typeShallow/Dense SAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cor__habitat_typeExposed/Low SAV.habitat_typeShallow/Low SAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cor__habitat_typeMod/Dense SAV.habitat_typeShallow/Dense SAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cor__habitat_typeMod/Dense SAV.habitat_typeShallow/Low SAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cor__habitat_typeShallow/Dense SAV.habitat_typeShallow/Low SAV</t>
   </si>
 </sst>
 </file>
@@ -483,13 +435,13 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.92127545234655</v>
+        <v>-1.90012701883985</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0397224822223558</v>
+        <v>0.0331005280850054</v>
       </c>
       <c r="G2" t="n">
-        <v>-48.3674570383534</v>
+        <v>-57.4047342676873</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -507,16 +459,16 @@
         <v>11</v>
       </c>
       <c r="E3" t="n">
-        <v>0.438129514280025</v>
+        <v>0.232229141619617</v>
       </c>
       <c r="F3" t="n">
-        <v>0.076409877089608</v>
+        <v>0.0154096168189177</v>
       </c>
       <c r="G3" t="n">
-        <v>5.73393821542493</v>
+        <v>15.0704033947502</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00000000981250882300578</v>
+        <v>0.00000000000000000000000000000000000000000000000000253560127718805</v>
       </c>
     </row>
     <row r="4">
@@ -531,16 +483,16 @@
         <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0203086113771808</v>
+        <v>0.0136972184944557</v>
       </c>
       <c r="F4" t="n">
-        <v>0.016508978404945</v>
+        <v>0.00546591749652712</v>
       </c>
       <c r="G4" t="n">
-        <v>1.23015554803184</v>
+        <v>2.50593217024561</v>
       </c>
       <c r="H4" t="n">
-        <v>0.218638862221832</v>
+        <v>0.0122129046178816</v>
       </c>
     </row>
     <row r="5">
@@ -555,16 +507,16 @@
         <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0321112415839058</v>
+        <v>0.00143662346518117</v>
       </c>
       <c r="F5" t="n">
-        <v>0.065672982351393</v>
+        <v>0.00795878904964373</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.488956652099183</v>
+        <v>0.180507795371895</v>
       </c>
       <c r="H5" t="n">
-        <v>0.624872386245141</v>
+        <v>0.856753935092869</v>
       </c>
     </row>
     <row r="6">
@@ -579,16 +531,16 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0615415927748369</v>
+        <v>0.0534507833271338</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0177482297446012</v>
+        <v>0.00413146847566079</v>
       </c>
       <c r="G6" t="n">
-        <v>3.46747780823365</v>
+        <v>12.9374781974065</v>
       </c>
       <c r="H6" t="n">
-        <v>0.000525367119779436</v>
+        <v>0.0000000000000000000000000000000000000276559268676092</v>
       </c>
     </row>
     <row r="7">
@@ -605,311 +557,11 @@
         <v>17</v>
       </c>
       <c r="E7" t="n">
-        <v>0.129632913149002</v>
+        <v>0.146843729020881</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.110026962608003</v>
-      </c>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.110026962608003</v>
-      </c>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.110026962608003</v>
-      </c>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.110026962608003</v>
-      </c>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.110026962608003</v>
-      </c>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-0.963051236103355</v>
-      </c>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.9274676833602</v>
-      </c>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-0.893198898905955</v>
-      </c>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.860196303677535</v>
-      </c>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" t="n">
-        <v>-0.963051236103355</v>
-      </c>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.9274676833602</v>
-      </c>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-0.893198898905955</v>
-      </c>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" t="n">
-        <v>-0.963051236103355</v>
-      </c>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.9274676833602</v>
-      </c>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-0.963051236103355</v>
-      </c>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/accel-glmm-results/habitat/np/glmm_ind_effects_hab_np.xlsx
+++ b/results/accel-glmm-results/habitat/np/glmm_ind_effects_hab_np.xlsx
@@ -435,13 +435,13 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.90012701883985</v>
+        <v>-1.90012701883887</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0331005280850054</v>
+        <v>0.0331005280853265</v>
       </c>
       <c r="G2" t="n">
-        <v>-57.4047342676873</v>
+        <v>-57.4047342671007</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -459,16 +459,16 @@
         <v>11</v>
       </c>
       <c r="E3" t="n">
-        <v>0.232229141619617</v>
+        <v>0.232229141615189</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0154096168189177</v>
+        <v>0.0154096168190436</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0704033947502</v>
+        <v>15.0704033943397</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000253560127718805</v>
+        <v>0.00000000000000000000000000000000000000000000000000253560129294141</v>
       </c>
     </row>
     <row r="4">
@@ -483,16 +483,16 @@
         <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0136972184944557</v>
+        <v>0.0136972184957149</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00546591749652712</v>
+        <v>0.00546591749652385</v>
       </c>
       <c r="G4" t="n">
-        <v>2.50593217024561</v>
+        <v>2.50593217047749</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0122129046178816</v>
+        <v>0.0122129046098726</v>
       </c>
     </row>
     <row r="5">
@@ -507,16 +507,16 @@
         <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00143662346518117</v>
+        <v>0.00143662346480081</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00795878904964373</v>
+        <v>0.00795878904965107</v>
       </c>
       <c r="G5" t="n">
-        <v>0.180507795371895</v>
+        <v>0.180507795323938</v>
       </c>
       <c r="H5" t="n">
-        <v>0.856753935092869</v>
+        <v>0.856753935130515</v>
       </c>
     </row>
     <row r="6">
@@ -531,16 +531,16 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0534507833271338</v>
+        <v>0.0534507833270219</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00413146847566079</v>
+        <v>0.00413146847566152</v>
       </c>
       <c r="G6" t="n">
-        <v>12.9374781974065</v>
+        <v>12.9374781973771</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0000000000000000000000000000000000000276559268676092</v>
+        <v>0.0000000000000000000000000000000000000276559268781818</v>
       </c>
     </row>
     <row r="7">
@@ -557,7 +557,7 @@
         <v>17</v>
       </c>
       <c r="E7" t="n">
-        <v>0.146843729020881</v>
+        <v>0.146843729022315</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>

--- a/results/accel-glmm-results/habitat/np/glmm_ind_effects_hab_np.xlsx
+++ b/results/accel-glmm-results/habitat/np/glmm_ind_effects_hab_np.xlsx
@@ -435,13 +435,13 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.90012701883887</v>
+        <v>-1.90012701883873</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0331005280853265</v>
+        <v>0.0331005280853765</v>
       </c>
       <c r="G2" t="n">
-        <v>-57.4047342671007</v>
+        <v>-57.4047342670097</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -459,16 +459,16 @@
         <v>11</v>
       </c>
       <c r="E3" t="n">
-        <v>0.232229141615189</v>
+        <v>0.232229141614541</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0154096168190436</v>
+        <v>0.01540961681906</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0704033943397</v>
+        <v>15.0704033942816</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000253560129294141</v>
+        <v>0.00000000000000000000000000000000000000000000000000253560129516999</v>
       </c>
     </row>
     <row r="4">
@@ -483,16 +483,16 @@
         <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0136972184957149</v>
+        <v>0.0136972184959043</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00546591749652385</v>
+        <v>0.00546591749652349</v>
       </c>
       <c r="G4" t="n">
-        <v>2.50593217047749</v>
+        <v>2.50593217051231</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0122129046098726</v>
+        <v>0.0122129046086697</v>
       </c>
     </row>
     <row r="5">
@@ -507,16 +507,16 @@
         <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00143662346480081</v>
+        <v>0.00143662346474481</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00795878904965107</v>
+        <v>0.00795878904965291</v>
       </c>
       <c r="G5" t="n">
-        <v>0.180507795323938</v>
+        <v>0.180507795316859</v>
       </c>
       <c r="H5" t="n">
-        <v>0.856753935130515</v>
+        <v>0.856753935136072</v>
       </c>
     </row>
     <row r="6">
@@ -531,16 +531,16 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0534507833270219</v>
+        <v>0.0534507833270048</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00413146847566152</v>
+        <v>0.00413146847566201</v>
       </c>
       <c r="G6" t="n">
-        <v>12.9374781973771</v>
+        <v>12.9374781973715</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0000000000000000000000000000000000000276559268781818</v>
+        <v>0.000000000000000000000000000000000000027655926880218</v>
       </c>
     </row>
     <row r="7">
@@ -557,7 +557,7 @@
         <v>17</v>
       </c>
       <c r="E7" t="n">
-        <v>0.146843729022315</v>
+        <v>0.146843729022527</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
